--- a/DB/Modelagens/Modelagem_Fisica_SpMed.xlsx
+++ b/DB/Modelagens/Modelagem_Fisica_SpMed.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{FB58F8A6-DCBB-4355-BA3D-54C220FB9D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2895" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,5 +2000,6 @@
     <hyperlink ref="C7" r:id="rId1" xr:uid="{5B2B266E-221C-4898-BF30-FDA031636DB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>